--- a/人員名單.xlsx
+++ b/人員名單.xlsx
@@ -18,10 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="378">
   <si>
-    <t>螺絲I1~113區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顏明笙</t>
   </si>
   <si>
@@ -1411,6 +1407,10 @@
   </si>
   <si>
     <t>張柏智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺絲I1~I13區</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1494,12 +1494,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1507,6 +1501,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1825,1122 +1825,1638 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+        <v>376</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="6"/>
+      <c r="B97" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B108" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B110" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+      <c r="B111" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B112" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="6"/>
+      <c r="B113" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B114" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B117" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="6"/>
+      <c r="B118" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
+      <c r="B120" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="6"/>
+      <c r="B122" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="6"/>
+      <c r="B123" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B124" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="6"/>
+      <c r="B125" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B126" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="6"/>
+      <c r="B127" t="s">
+        <v>161</v>
+      </c>
+      <c r="C127">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B129" t="s">
+        <v>164</v>
+      </c>
+      <c r="C129">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="6"/>
+      <c r="B131" t="s">
+        <v>169</v>
+      </c>
+      <c r="C131">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="6"/>
+      <c r="B132" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="6"/>
+      <c r="B133" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="6"/>
+      <c r="B134" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="B135" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="6"/>
+      <c r="B136" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="6"/>
+      <c r="B137" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="6"/>
+      <c r="B139" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="6"/>
+      <c r="B140" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="6"/>
+      <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="6"/>
+      <c r="B142" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="6"/>
+      <c r="B143" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="6"/>
+      <c r="B144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="6"/>
+      <c r="B145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B146" t="s">
+        <v>185</v>
+      </c>
+      <c r="C146">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="6"/>
+      <c r="B147" t="s">
+        <v>186</v>
+      </c>
+      <c r="C147">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="6"/>
+      <c r="B148" t="s">
+        <v>187</v>
+      </c>
+      <c r="C148">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="6"/>
+      <c r="B149" t="s">
+        <v>188</v>
+      </c>
+      <c r="C149">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B150" t="s">
+        <v>163</v>
+      </c>
+      <c r="C150">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="7"/>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="7"/>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="7"/>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="7"/>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="7"/>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="7"/>
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="7"/>
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="7"/>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B161" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="7"/>
+      <c r="B162" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="7"/>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="7"/>
+      <c r="B164" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B165" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="7"/>
+      <c r="B166" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B167" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="7"/>
+      <c r="B168" t="s">
+        <v>30</v>
+      </c>
+      <c r="C168">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B169" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-      <c r="B88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-      <c r="B92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
-      <c r="B94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-      <c r="B96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B102" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="7"/>
-      <c r="B103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-      <c r="B115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="7"/>
-      <c r="B123" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B124" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="7"/>
-      <c r="B125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="7"/>
-      <c r="B127" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="7"/>
-      <c r="B128" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B130" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="7"/>
-      <c r="B131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="7"/>
-      <c r="B132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="7"/>
-      <c r="B133" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="7"/>
-      <c r="B134" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="7"/>
-      <c r="B135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="7"/>
-      <c r="B136" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="7"/>
-      <c r="B137" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B138" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="7"/>
-      <c r="B139" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="7"/>
-      <c r="B140" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="7"/>
-      <c r="B141" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="7"/>
-      <c r="B142" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="7"/>
-      <c r="B143" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="7"/>
-      <c r="B144" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="7"/>
-      <c r="B145" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B146" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="7"/>
-      <c r="B147" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="7"/>
-      <c r="B148" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="7"/>
-      <c r="B149" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B151" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
-      <c r="B152" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
-      <c r="B153" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
-      <c r="B154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
-      <c r="B155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
-      <c r="B156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B157" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="5"/>
-      <c r="B158" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="5"/>
-      <c r="B159" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="5"/>
-      <c r="B160" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B161" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="5"/>
-      <c r="B162" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="5"/>
-      <c r="B163" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="5"/>
-      <c r="B164" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B165" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="5"/>
-      <c r="B166" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B167" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="5"/>
-      <c r="B168" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B169" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="6"/>
+      <c r="B170" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="7"/>
-      <c r="B170" t="s">
+      <c r="C170">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="6"/>
+      <c r="B171" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="7"/>
-      <c r="B171" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="7"/>
+      <c r="C171">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="6"/>
       <c r="B172" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+      <c r="C172">
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -3026,6 +3542,8 @@
     <mergeCell ref="A117:A118"/>
     <mergeCell ref="A119:A120"/>
     <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="A90:A97"/>
     <mergeCell ref="A124:A125"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
@@ -3033,11 +3551,6 @@
     <mergeCell ref="A106:A107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A90:A97"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -3051,6 +3564,9 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3073,1057 +3589,1057 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
         <v>190</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="B24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B39" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B42" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B58" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+      <c r="B72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+      <c r="B73" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B66" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+      <c r="B80" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="8"/>
+      <c r="B81" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="8"/>
+      <c r="B82" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+      <c r="B83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+      <c r="B84" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+      <c r="B85" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+      <c r="B87" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="8"/>
+      <c r="B88" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="8"/>
+      <c r="B89" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="8"/>
+      <c r="B90" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="8"/>
+      <c r="B91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="8"/>
+      <c r="B92" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="8"/>
+      <c r="B93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="8"/>
+      <c r="B94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="8"/>
+      <c r="B95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="8"/>
+      <c r="B96" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="8"/>
+      <c r="B97" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="8"/>
+      <c r="B98" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="8"/>
+      <c r="B99" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="8"/>
+      <c r="B100" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="8"/>
+      <c r="B101" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="8"/>
+      <c r="B102" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="8"/>
+      <c r="B103" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="8"/>
+      <c r="B104" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="8"/>
+      <c r="B105" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="8"/>
+      <c r="B106" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="8"/>
+      <c r="B107" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="8"/>
+      <c r="B108" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="8"/>
+      <c r="B109" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="8"/>
+      <c r="B110" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="8"/>
+      <c r="B111" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="8"/>
+      <c r="B112" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="8"/>
+      <c r="B113" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="8"/>
+      <c r="B114" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="8"/>
+      <c r="B115" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="8"/>
+      <c r="B116" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="8"/>
+      <c r="B117" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="8"/>
+      <c r="B118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="8"/>
+      <c r="B119" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="8"/>
+      <c r="B120" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="8"/>
+      <c r="B121" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="8"/>
+      <c r="B122" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="8"/>
+      <c r="B123" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="8"/>
+      <c r="B124" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="8"/>
+      <c r="B125" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="8"/>
+      <c r="B126" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="8"/>
+      <c r="B127" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="8"/>
+      <c r="B128" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="8"/>
+      <c r="B129" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="8"/>
+      <c r="B130" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B76" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="B110" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="B116" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="B118" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="B119" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="B120" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
-      <c r="B123" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="B126" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="B128" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="B129" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="8"/>
+      <c r="B132" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="8"/>
+      <c r="B133" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
-      <c r="B133" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="8"/>
+      <c r="B134" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="B134" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="8"/>
+      <c r="B135" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
-      <c r="B135" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="8"/>
+      <c r="B136" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
-      <c r="B136" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="8"/>
+      <c r="B137" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="4"/>
-      <c r="B137" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="8"/>
+      <c r="B138" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
-      <c r="B138" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="8"/>
+      <c r="B139" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
-      <c r="B139" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="8"/>
+      <c r="B140" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="B140" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="8"/>
+      <c r="B141" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="B141" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="B142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="8"/>
+      <c r="B143" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="B143" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="8"/>
+      <c r="B144" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
-      <c r="B144" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="8"/>
+      <c r="B145" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
-      <c r="B145" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="8"/>
+      <c r="B146" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
-      <c r="B146" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="8"/>
+      <c r="B147" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
-      <c r="B147" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="8"/>
+      <c r="B148" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
-      <c r="B148" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="8"/>
+      <c r="B149" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="B149" t="s">
-        <v>176</v>
-      </c>
-    </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="4"/>
+      <c r="A150" s="8"/>
       <c r="B150" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="8"/>
+      <c r="B151" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
-      <c r="B151" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="8"/>
+      <c r="B152" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
-      <c r="B152" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="8"/>
+      <c r="B153" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="4"/>
-      <c r="B153" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="8"/>
+      <c r="B154" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="4"/>
-      <c r="B154" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="8"/>
+      <c r="B155" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="4"/>
-      <c r="B155" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="8"/>
+      <c r="B156" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="4"/>
-      <c r="B156" t="s">
-        <v>184</v>
-      </c>
-    </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="4"/>
+      <c r="A157" s="8"/>
       <c r="B157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="8"/>
+      <c r="B158" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="4"/>
-      <c r="B158" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="8"/>
+      <c r="B159" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="4"/>
-      <c r="B159" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="8"/>
+      <c r="B160" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="4"/>
-      <c r="B160" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="B167" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
       <c r="B169" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
       <c r="B172" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4133,12 +4649,12 @@
     <mergeCell ref="A131:A141"/>
     <mergeCell ref="A142:A160"/>
     <mergeCell ref="A161:A172"/>
+    <mergeCell ref="A58:A65"/>
     <mergeCell ref="A1:A23"/>
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A57"/>
-    <mergeCell ref="A58:A65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/人員名單.xlsx
+++ b/人員名單.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11136" yWindow="60" windowWidth="12876" windowHeight="8652"/>
+    <workbookView xWindow="9408" yWindow="48" windowWidth="12876" windowHeight="8652"/>
   </bookViews>
   <sheets>
     <sheet name="上午" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="377">
   <si>
     <t>顏明笙</t>
   </si>
@@ -28,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李國賓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陳紀均</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,10 +455,6 @@
   </si>
   <si>
     <t>黃梅雀</t>
-  </si>
-  <si>
-    <t>黃梅雀＊＊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蔡賢馨</t>
@@ -1051,10 +1043,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李國賓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黃梅香</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1064,10 +1052,6 @@
   </si>
   <si>
     <t>游喏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃梅雀**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1327,90 +1311,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(五甲)模具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(五甲)牙板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(五甲)沖棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(五甲)撞針</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(五甲)固定資產</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五甲一廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李東錦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃爭慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉東潾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳璋彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江政諭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許庭豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包志傑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林佑穎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>納陸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭吉祥</t>
+  </si>
+  <si>
+    <t>安仨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張柏智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺絲I1~I13區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃泳銓</t>
+  </si>
+  <si>
+    <t>黃泳銓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(五甲)線材&amp;搓牙成品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(五甲)模具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(五甲)牙板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(五甲)沖棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(五甲)撞針</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(五甲)固定資產</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五甲一廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李東錦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃爭慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葉東潾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳璋彬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江政諭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>許庭豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包志傑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林佑穎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾弟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>納陸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄭吉祥</t>
-  </si>
-  <si>
-    <t>安仨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張柏智</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺絲I1~I13區</t>
+    <t>(五甲)割尾半品&amp;成品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1500,10 +1495,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1813,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A23"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1826,8 +1821,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>377</v>
+      <c r="A1" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1837,16 +1832,16 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1855,18 +1850,18 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>339</v>
+      <c r="A4" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>374</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1875,1167 +1870,1167 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>340</v>
+      <c r="A16" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>341</v>
+      <c r="A24" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>342</v>
+      <c r="A31" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
+      <c r="A36" s="7"/>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7"/>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
         <v>61</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
       </c>
       <c r="C39">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
+      <c r="A40" s="7"/>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="7"/>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
         <v>66</v>
-      </c>
-      <c r="B43" t="s">
-        <v>67</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
+      <c r="A45" s="7"/>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
+      <c r="A46" s="7"/>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
         <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>72</v>
       </c>
       <c r="C47">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
+      <c r="A48" s="7"/>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
+      <c r="A49" s="7"/>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
+      <c r="A50" s="7"/>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
+      <c r="A51" s="7"/>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
+      <c r="A52" s="7"/>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
+      <c r="A53" s="7"/>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
+      <c r="A54" s="7"/>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
         <v>76</v>
-      </c>
-      <c r="B55" t="s">
-        <v>77</v>
       </c>
       <c r="C55">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
+      <c r="A56" s="7"/>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
+      <c r="A57" s="7"/>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
+      <c r="A58" s="7"/>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
+      <c r="A59" s="7"/>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C59">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>343</v>
+      <c r="A60" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
+      <c r="A61" s="7"/>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61">
         <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
+      <c r="A62" s="7"/>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
+      <c r="A63" s="7"/>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
+      <c r="A64" s="7"/>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
+      <c r="A65" s="7"/>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
+      <c r="A66" s="7"/>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
         <v>93</v>
-      </c>
-      <c r="B67" t="s">
-        <v>94</v>
       </c>
       <c r="C67">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
+      <c r="A68" s="7"/>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
+      <c r="A69" s="7"/>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
+      <c r="A70" s="7"/>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
         <v>98</v>
-      </c>
-      <c r="B71" t="s">
-        <v>99</v>
       </c>
       <c r="C71">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
+      <c r="A72" s="7"/>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s">
         <v>101</v>
-      </c>
-      <c r="B73" t="s">
-        <v>102</v>
       </c>
       <c r="C73">
         <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
+      <c r="A74" s="7"/>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
+      <c r="A75" s="7"/>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
+      <c r="A76" s="7"/>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
+      <c r="A77" s="7"/>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
+      <c r="A78" s="7"/>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
+      <c r="A79" s="7"/>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79">
         <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
+      <c r="A80" s="7"/>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80">
         <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
+      <c r="A81" s="7"/>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" t="s">
         <v>111</v>
-      </c>
-      <c r="B82" t="s">
-        <v>112</v>
       </c>
       <c r="C82">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
+      <c r="A83" s="7"/>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
+      <c r="A84" s="7"/>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
+      <c r="A85" s="7"/>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C85">
         <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
+      <c r="A86" s="7"/>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
+      <c r="A87" s="7"/>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C87">
         <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
+      <c r="A88" s="7"/>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88">
         <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="6"/>
+      <c r="A89" s="7"/>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C89">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" t="s">
         <v>120</v>
-      </c>
-      <c r="B90" t="s">
-        <v>121</v>
       </c>
       <c r="C90">
         <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
+      <c r="A91" s="7"/>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91">
         <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
+      <c r="A92" s="7"/>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92">
         <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
+      <c r="A93" s="7"/>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93">
         <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="6"/>
+      <c r="A94" s="7"/>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="6"/>
+      <c r="A95" s="7"/>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C95">
         <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="6"/>
+      <c r="A96" s="7"/>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C96">
         <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="6"/>
+      <c r="A97" s="7"/>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97">
         <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" t="s">
         <v>128</v>
-      </c>
-      <c r="B98" t="s">
-        <v>129</v>
       </c>
       <c r="C98">
         <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="6"/>
+      <c r="A99" s="7"/>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99">
         <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>132</v>
+      <c r="A100" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100">
         <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="6"/>
+      <c r="A101" s="7"/>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="C101">
         <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
-        <v>136</v>
+      <c r="A102" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C102">
         <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="6"/>
+      <c r="A103" s="7"/>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C103">
         <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>345</v>
+      <c r="A104" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C104">
         <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="6"/>
+      <c r="A105" s="7"/>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C105">
         <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>346</v>
+      <c r="A106" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="B106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C106">
         <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="6"/>
+      <c r="A107" s="7"/>
       <c r="B107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C107">
         <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>347</v>
+      <c r="A108" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="B108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C108">
         <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
+      <c r="A109" s="7"/>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C109">
         <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>348</v>
+      <c r="A110" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="B110" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C110">
         <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="6"/>
+      <c r="A111" s="7"/>
       <c r="B111" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C111">
         <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>349</v>
+      <c r="A112" s="7" t="s">
+        <v>345</v>
       </c>
       <c r="B112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C112">
         <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
+      <c r="A113" s="7"/>
       <c r="B113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C113">
         <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>350</v>
+      <c r="A114" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="B114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C114">
         <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="6"/>
+      <c r="A115" s="7"/>
       <c r="B115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C115">
         <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="6"/>
+      <c r="A116" s="7"/>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C116">
         <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
-        <v>351</v>
+      <c r="A117" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C117">
         <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="6"/>
+      <c r="A118" s="7"/>
       <c r="B118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C118">
         <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>352</v>
+      <c r="A119" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C119">
         <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="6"/>
+      <c r="A120" s="7"/>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C120">
         <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>353</v>
+      <c r="A121" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C121">
         <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="6"/>
+      <c r="A122" s="7"/>
       <c r="B122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C122">
         <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="6"/>
+      <c r="A123" s="7"/>
       <c r="B123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C123">
         <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>354</v>
+      <c r="A124" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C124">
         <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
+      <c r="A125" s="7"/>
       <c r="B125" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C125">
         <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
-        <v>166</v>
+      <c r="A126" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C126">
         <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="6"/>
+      <c r="A127" s="7"/>
       <c r="B127" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C127">
         <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="6"/>
+      <c r="A128" s="7"/>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C128">
         <v>32</v>
@@ -3043,196 +3038,196 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C129">
         <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
-        <v>167</v>
+      <c r="A130" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B130" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C130">
         <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="6"/>
+      <c r="A131" s="7"/>
       <c r="B131" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C131">
         <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="6"/>
+      <c r="A132" s="7"/>
       <c r="B132" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C132">
         <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="6"/>
+      <c r="A133" s="7"/>
       <c r="B133" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C133">
         <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="6"/>
+      <c r="A134" s="7"/>
       <c r="B134" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C134">
         <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="6"/>
+      <c r="A135" s="7"/>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C135">
         <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="6"/>
+      <c r="A136" s="7"/>
       <c r="B136" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C136">
         <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="6"/>
+      <c r="A137" s="7"/>
       <c r="B137" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C137">
         <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
-        <v>176</v>
+      <c r="A138" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B138" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C138">
         <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="6"/>
+      <c r="A139" s="7"/>
       <c r="B139" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C139">
         <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="6"/>
+      <c r="A140" s="7"/>
       <c r="B140" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C140">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="6"/>
+      <c r="A141" s="7"/>
       <c r="B141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C141">
         <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="6"/>
+      <c r="A142" s="7"/>
       <c r="B142" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C142">
         <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="6"/>
+      <c r="A143" s="7"/>
       <c r="B143" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C143">
         <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="6"/>
+      <c r="A144" s="7"/>
       <c r="B144" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C144">
         <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="6"/>
+      <c r="A145" s="7"/>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C145">
         <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
-        <v>344</v>
+      <c r="A146" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="B146" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C146">
         <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
+      <c r="A147" s="7"/>
       <c r="B147" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C147">
         <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="6"/>
+      <c r="A148" s="7"/>
       <c r="B148" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C148">
         <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="6"/>
+      <c r="A149" s="7"/>
       <c r="B149" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C149">
         <v>36</v>
@@ -3240,10 +3235,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B150" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C150">
         <v>37</v>
@@ -3251,10 +3246,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151">
         <v>38</v>
@@ -3263,7 +3258,7 @@
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C152">
         <v>38</v>
@@ -3272,192 +3267,198 @@
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C153">
         <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="7"/>
+      <c r="A154" s="7" t="s">
+        <v>376</v>
+      </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C154">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C155">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
       <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B157" t="s">
         <v>18</v>
       </c>
-      <c r="C156">
+      <c r="C157">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="6"/>
+      <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="6"/>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="6"/>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="6"/>
+      <c r="B163" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="6"/>
+      <c r="B164" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B157" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="7"/>
-      <c r="B158" t="s">
-        <v>20</v>
-      </c>
-      <c r="C158">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="7"/>
-      <c r="B159" t="s">
-        <v>21</v>
-      </c>
-      <c r="C159">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="7"/>
-      <c r="B160" t="s">
-        <v>22</v>
-      </c>
-      <c r="C160">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B161" t="s">
-        <v>23</v>
-      </c>
-      <c r="C161">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="7"/>
-      <c r="B162" t="s">
-        <v>24</v>
-      </c>
-      <c r="C162">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="7"/>
-      <c r="B163" t="s">
-        <v>25</v>
-      </c>
-      <c r="C163">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="7"/>
-      <c r="B164" t="s">
+      <c r="C164">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B165" t="s">
         <v>26</v>
       </c>
-      <c r="C164">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="C165">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="6"/>
+      <c r="B166" t="s">
         <v>27</v>
       </c>
-      <c r="C165">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="7"/>
-      <c r="B166" t="s">
+      <c r="C166">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B167" t="s">
         <v>28</v>
       </c>
-      <c r="C166">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="C167">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="6"/>
+      <c r="B168" t="s">
         <v>29</v>
       </c>
-      <c r="C167">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="7"/>
-      <c r="B168" t="s">
+      <c r="C168">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B169" t="s">
         <v>30</v>
       </c>
-      <c r="C168">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="C169">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="7"/>
+      <c r="B170" t="s">
         <v>31</v>
       </c>
-      <c r="C169">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="6"/>
-      <c r="B170" t="s">
+      <c r="C170">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="7"/>
+      <c r="B171" t="s">
         <v>32</v>
       </c>
-      <c r="C170">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="6"/>
-      <c r="B171" t="s">
-        <v>33</v>
-      </c>
       <c r="C171">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="6"/>
-      <c r="B172" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C172">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="3"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
@@ -3475,27 +3476,27 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
       <c r="K179" s="2"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="3"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -3511,37 +3512,25 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A130:A137"/>
-    <mergeCell ref="A138:A145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A123"/>
+  <mergeCells count="42">
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A38"/>
     <mergeCell ref="A82:A89"/>
     <mergeCell ref="A90:A97"/>
     <mergeCell ref="A124:A125"/>
@@ -3552,21 +3541,21 @@
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A110:A111"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="A138:A145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3576,10 +3565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3590,910 +3579,910 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="B129" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="8"/>
+      <c r="A130" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="B130" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
-        <v>220</v>
-      </c>
+      <c r="A131" s="8"/>
       <c r="B131" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="8"/>
       <c r="B134" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="B138" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="8"/>
+      <c r="A141" s="8" t="s">
+        <v>334</v>
+      </c>
       <c r="B141" t="s">
-        <v>337</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="8" t="s">
-        <v>338</v>
-      </c>
+      <c r="A142" s="8"/>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="B144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -4505,37 +4494,37 @@
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
       <c r="B153" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
       <c r="B154" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -4547,114 +4536,108 @@
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="B157" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="B158" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="8"/>
-      <c r="B160" t="s">
-        <v>188</v>
+      <c r="A160" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="9" t="s">
-        <v>362</v>
-      </c>
+      <c r="A161" s="9"/>
       <c r="B161" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="B167" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
       <c r="B169" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="9"/>
-      <c r="B172" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A76:A130"/>
-    <mergeCell ref="A131:A141"/>
-    <mergeCell ref="A142:A160"/>
-    <mergeCell ref="A161:A172"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A1:A23"/>
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A57"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="A76:A129"/>
+    <mergeCell ref="A130:A140"/>
+    <mergeCell ref="A141:A159"/>
+    <mergeCell ref="A160:A171"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/人員名單.xlsx
+++ b/人員名單.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="378">
   <si>
     <t>顏明笙</t>
   </si>
@@ -1407,6 +1407,9 @@
   <si>
     <t>(五甲)割尾半品&amp;成品</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林育民</t>
   </si>
 </sst>
 </file>
@@ -1450,12 +1453,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1475,7 +1484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,16 +1504,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1808,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1821,7 +1833,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>372</v>
       </c>
       <c r="B1" t="s">
@@ -1832,7 +1844,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>371</v>
       </c>
@@ -1841,7 +1853,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1850,7 +1862,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>335</v>
       </c>
       <c r="B4" t="s">
@@ -1861,7 +1873,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1870,7 +1882,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1879,7 +1891,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1890,7 +1902,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1899,7 +1911,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1908,7 +1920,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1919,7 +1931,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1940,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1937,1528 +1949,1524 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>34</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>37</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" t="s">
-        <v>41</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>45</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>52</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" t="s">
-        <v>53</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>61</v>
-      </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" t="s">
-        <v>62</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>66</v>
-      </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" t="s">
-        <v>67</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6"/>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>71</v>
-      </c>
-      <c r="C47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" t="s">
-        <v>72</v>
       </c>
       <c r="C48">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
+      <c r="A49" s="6"/>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6"/>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
+      <c r="A51" s="6"/>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C51">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
+      <c r="A52" s="6"/>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
+      <c r="A53" s="6"/>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
+      <c r="A54" s="6"/>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6"/>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>76</v>
-      </c>
-      <c r="C55">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" t="s">
-        <v>77</v>
       </c>
       <c r="C56">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
+      <c r="A57" s="6"/>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
+      <c r="A58" s="6"/>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
+      <c r="A59" s="6"/>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C59">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6"/>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>85</v>
-      </c>
-      <c r="C60">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" t="s">
-        <v>86</v>
       </c>
       <c r="C61">
         <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
+      <c r="A62" s="6"/>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
+      <c r="A63" s="6"/>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
+      <c r="A64" s="6"/>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
+      <c r="A65" s="6"/>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
+      <c r="A66" s="6"/>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6"/>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>93</v>
-      </c>
-      <c r="C67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" t="s">
-        <v>94</v>
       </c>
       <c r="C68">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
+      <c r="A69" s="6"/>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
+      <c r="A70" s="6"/>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6"/>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>98</v>
-      </c>
-      <c r="C71">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" t="s">
-        <v>99</v>
       </c>
       <c r="C72">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6"/>
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>101</v>
-      </c>
-      <c r="C73">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" t="s">
-        <v>102</v>
       </c>
       <c r="C74">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
+      <c r="A75" s="6"/>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
+      <c r="A76" s="6"/>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
+      <c r="A77" s="6"/>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
+      <c r="A78" s="6"/>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
+      <c r="A79" s="6"/>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79">
         <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
+      <c r="A80" s="6"/>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80">
         <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
+      <c r="A81" s="6"/>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="6"/>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>111</v>
-      </c>
-      <c r="C82">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" t="s">
-        <v>112</v>
       </c>
       <c r="C83">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
+      <c r="A84" s="6"/>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
+      <c r="A85" s="6"/>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85">
         <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
+      <c r="A86" s="6"/>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
+      <c r="A87" s="6"/>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87">
         <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
+      <c r="A88" s="6"/>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88">
         <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
+      <c r="A89" s="6"/>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="6"/>
+      <c r="B90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>120</v>
-      </c>
-      <c r="C90">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" t="s">
-        <v>121</v>
       </c>
       <c r="C91">
         <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
+      <c r="A92" s="6"/>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92">
         <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
+      <c r="A93" s="6"/>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93">
         <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
+      <c r="A94" s="6"/>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
+      <c r="A95" s="6"/>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C95">
         <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
+      <c r="A96" s="6"/>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C96">
         <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
+      <c r="A97" s="6"/>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C97">
         <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="6"/>
+      <c r="B98" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>128</v>
-      </c>
-      <c r="C98">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" t="s">
-        <v>130</v>
       </c>
       <c r="C99">
         <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6"/>
+      <c r="B100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>133</v>
-      </c>
-      <c r="C100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" t="s">
-        <v>24</v>
       </c>
       <c r="C101">
         <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="6"/>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>135</v>
-      </c>
-      <c r="C102">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="7"/>
-      <c r="B103" t="s">
-        <v>136</v>
       </c>
       <c r="C103">
         <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6"/>
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>137</v>
-      </c>
-      <c r="C104">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" t="s">
-        <v>138</v>
       </c>
       <c r="C105">
         <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6"/>
+      <c r="B106" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>139</v>
-      </c>
-      <c r="C106">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" t="s">
-        <v>140</v>
       </c>
       <c r="C107">
         <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="6"/>
+      <c r="B108" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>141</v>
-      </c>
-      <c r="C108">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" t="s">
-        <v>142</v>
       </c>
       <c r="C109">
         <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="6"/>
+      <c r="B110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>143</v>
-      </c>
-      <c r="C110">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" t="s">
-        <v>144</v>
       </c>
       <c r="C111">
         <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="6"/>
+      <c r="B112" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>132</v>
-      </c>
-      <c r="C112">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" t="s">
-        <v>145</v>
       </c>
       <c r="C113">
         <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6"/>
+      <c r="B114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>146</v>
-      </c>
-      <c r="C114">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-      <c r="B115" t="s">
-        <v>147</v>
       </c>
       <c r="C115">
         <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
+      <c r="A116" s="6"/>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C116">
         <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="6"/>
+      <c r="B117" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>149</v>
-      </c>
-      <c r="C117">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" t="s">
-        <v>150</v>
       </c>
       <c r="C118">
         <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="6"/>
+      <c r="B119" t="s">
+        <v>150</v>
+      </c>
+      <c r="C119">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>151</v>
-      </c>
-      <c r="C119">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" t="s">
-        <v>152</v>
       </c>
       <c r="C120">
         <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="6"/>
+      <c r="B121" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>153</v>
-      </c>
-      <c r="C121">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" t="s">
-        <v>154</v>
       </c>
       <c r="C122">
         <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="7"/>
+      <c r="A123" s="6"/>
       <c r="B123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C123">
         <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="6"/>
+      <c r="B124" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>156</v>
-      </c>
-      <c r="C124">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="7"/>
-      <c r="B125" t="s">
-        <v>157</v>
       </c>
       <c r="C125">
         <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="6"/>
+      <c r="B126" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>158</v>
-      </c>
-      <c r="C126">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="7"/>
-      <c r="B127" t="s">
-        <v>159</v>
       </c>
       <c r="C127">
         <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="7"/>
+      <c r="A128" s="6"/>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C128">
         <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="6"/>
+      <c r="B129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>162</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="7" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>166</v>
-      </c>
-      <c r="C130">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="7"/>
-      <c r="B131" t="s">
-        <v>167</v>
       </c>
       <c r="C131">
         <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="7"/>
+      <c r="A132" s="6"/>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C132">
         <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="7"/>
+      <c r="A133" s="6"/>
       <c r="B133" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C133">
         <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="7"/>
+      <c r="A134" s="6"/>
       <c r="B134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C134">
         <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="7"/>
+      <c r="A135" s="6"/>
       <c r="B135" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C135">
         <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="7"/>
+      <c r="A136" s="6"/>
       <c r="B136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C136">
         <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="7"/>
+      <c r="A137" s="6"/>
       <c r="B137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C137">
         <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="6"/>
+      <c r="B138" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>175</v>
-      </c>
-      <c r="C138">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="7"/>
-      <c r="B139" t="s">
-        <v>176</v>
       </c>
       <c r="C139">
         <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="7"/>
+      <c r="A140" s="6"/>
       <c r="B140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C140">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="7"/>
+      <c r="A141" s="6"/>
       <c r="B141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C141">
         <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="7"/>
+      <c r="A142" s="6"/>
       <c r="B142" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C142">
         <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="7"/>
+      <c r="A143" s="6"/>
       <c r="B143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C143">
         <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="7"/>
+      <c r="A144" s="6"/>
       <c r="B144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C144">
         <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="7"/>
+      <c r="A145" s="6"/>
       <c r="B145" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C145">
         <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="6"/>
+      <c r="B146" t="s">
+        <v>182</v>
+      </c>
+      <c r="C146">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>183</v>
-      </c>
-      <c r="C146">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="7"/>
-      <c r="B147" t="s">
-        <v>184</v>
       </c>
       <c r="C147">
         <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="7"/>
+      <c r="A148" s="6"/>
       <c r="B148" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C148">
         <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="7"/>
+      <c r="A149" s="6"/>
       <c r="B149" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C149">
         <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="6"/>
+      <c r="B150" t="s">
+        <v>186</v>
+      </c>
+      <c r="C150">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>161</v>
       </c>
-      <c r="C150">
+      <c r="C151">
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>12</v>
-      </c>
-      <c r="C151">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="7"/>
-      <c r="B152" t="s">
-        <v>13</v>
       </c>
       <c r="C152">
         <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="7"/>
+      <c r="A153" s="6"/>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C153">
         <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="6"/>
+      <c r="B154" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>15</v>
-      </c>
-      <c r="C154">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="7"/>
-      <c r="B155" t="s">
-        <v>16</v>
       </c>
       <c r="C155">
         <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="7"/>
+      <c r="A156" s="6"/>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C156">
         <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="6"/>
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>18</v>
-      </c>
-      <c r="C157">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="6"/>
-      <c r="B158" t="s">
-        <v>19</v>
       </c>
       <c r="C158">
         <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="6"/>
+      <c r="A159" s="7"/>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C159">
         <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="6"/>
+      <c r="A160" s="7"/>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C160">
         <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="7"/>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>22</v>
-      </c>
-      <c r="C161">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="6"/>
-      <c r="B162" t="s">
-        <v>23</v>
       </c>
       <c r="C162">
         <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="6"/>
-      <c r="B163" s="2" t="s">
-        <v>369</v>
+      <c r="A163" s="7"/>
+      <c r="B163" t="s">
+        <v>23</v>
       </c>
       <c r="C163">
         <v>41</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="6"/>
-      <c r="B164" t="s">
-        <v>38</v>
+      <c r="A164" s="7"/>
+      <c r="B164" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="C164">
         <v>41</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="7"/>
+      <c r="B165" t="s">
+        <v>38</v>
+      </c>
+      <c r="C165">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>26</v>
-      </c>
-      <c r="C165">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="6"/>
-      <c r="B166" t="s">
-        <v>27</v>
       </c>
       <c r="C166">
         <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="7"/>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>28</v>
-      </c>
-      <c r="C167">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="6"/>
-      <c r="B168" t="s">
-        <v>29</v>
       </c>
       <c r="C168">
         <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="7"/>
+      <c r="B169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>30</v>
-      </c>
-      <c r="C169">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="7"/>
-      <c r="B170" t="s">
-        <v>31</v>
       </c>
       <c r="C170">
         <v>44</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="7"/>
+      <c r="A171" s="6"/>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C171">
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="3"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="6"/>
+      <c r="B172" t="s">
+        <v>32</v>
+      </c>
+      <c r="C172">
+        <v>44</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
@@ -3476,27 +3484,27 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
       <c r="K180" s="2"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -3512,50 +3520,63 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A158:A161"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A130:A137"/>
-    <mergeCell ref="A138:A145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3565,10 +3586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3653,991 +3674,997 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
-      <c r="B13" t="s">
-        <v>200</v>
+      <c r="B13" s="10" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" t="s">
-        <v>302</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="B129" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="8"/>
+      <c r="B130" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="8"/>
-      <c r="B131" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="8"/>
       <c r="B134" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="B138" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="8"/>
+      <c r="B141" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="8"/>
-      <c r="B142" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="B144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="B147" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="B150" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
       <c r="B153" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
       <c r="B154" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="B156" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="B157" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="B158" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="8"/>
+      <c r="B160" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="9" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="9"/>
-      <c r="B161" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="B167" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
       <c r="B169" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="9"/>
+      <c r="B172" s="2" t="s">
         <v>368</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A1:A23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A57"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A76:A129"/>
-    <mergeCell ref="A130:A140"/>
-    <mergeCell ref="A141:A159"/>
-    <mergeCell ref="A160:A171"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A77:A130"/>
+    <mergeCell ref="A131:A141"/>
+    <mergeCell ref="A142:A160"/>
+    <mergeCell ref="A161:A172"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A1:A24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
